--- a/data/hotels_by_city/Dallas/Dallas_shard_545.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_545.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>STR#</t>
   </si>
@@ -142,6 +142,233 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r330405359-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>30203</t>
+  </si>
+  <si>
+    <t>620355</t>
+  </si>
+  <si>
+    <t>330405359</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>IT SUCKED BIG TIME!!!!!!!!</t>
+  </si>
+  <si>
+    <t>It sucked big tome!!!!!!!!!  I travel a lot and never ever have I ever stayed in such a horrible place.  The very first thing that happened was they couldn't run my card because the manager was not there and he was the only person that could do that. I requested a downstairs room, due to the fact that my boyfriend is crippled and has to use a walker or cane to walk.  The room they gave us, room #105 the ceiling was majorly leaking in the bathroom, the floor, toilet and shower were covered in water.   When I went and told them that we needed another room they treated me like I was crazy.  They came and looked then they saw that I was not crazy.  That room appeared on my card as being $55.31 and it was a king sized bed.  Then they told me they had no more downstairs rooms.  I went and asked my crippled boyfriend who had just made a 5 hour drive to town if he thought he could make it up the stairs, he said yes but it would take him a while.  So we moved to room #210 which was a long walk from the stair case and it did take a while for him to make it.  This room had 2 beds which was okay.  When I finally got him and our luggage up to the
+room the t.v. only had one...It sucked big tome!!!!!!!!!  I travel a lot and never ever have I ever stayed in such a horrible place.  The very first thing that happened was they couldn't run my card because the manager was not there and he was the only person that could do that. I requested a downstairs room, due to the fact that my boyfriend is crippled and has to use a walker or cane to walk.  The room they gave us, room #105 the ceiling was majorly leaking in the bathroom, the floor, toilet and shower were covered in water.   When I went and told them that we needed another room they treated me like I was crazy.  They came and looked then they saw that I was not crazy.  That room appeared on my card as being $55.31 and it was a king sized bed.  Then they told me they had no more downstairs rooms.  I went and asked my crippled boyfriend who had just made a 5 hour drive to town if he thought he could make it up the stairs, he said yes but it would take him a while.  So we moved to room #210 which was a long walk from the stair case and it did take a while for him to make it.  This room had 2 beds which was okay.  When I finally got him and our luggage up to theroom the t.v. only had one channel.  They told me that the "manager" would be back soon and would take care of it.  When the "manager" got to the room it was a teenage boy.  He did fix the t.v.  Then about 30 to 45 minutes later I got a call that I could come down and pay for the room.  So I went and did that and guess what that room on the second floor with 2 beds costed $90.40.  I could have gone to a Best Western and paid that and would have had a lot better service, clean room, be treated with the up most respect, have a hot breakfast, talk with a native speaker of the English language and not like a pesky pain in the butt!!!!!  I am seriously considering disputing the charge on my card, at the very least I should get a refund of the difference between the cost of the rooms!!!!!!!  The only reason we didn't go to the Best Western is that my boyfriend was so beat up from the drive and all the walking and changing of the rooms he just wanted to rest.  If you can handle all of the problems go ahead but I will never spend another night there.  My personal opinion is that if you are going to work with the general public you should speak English that anyone can understand.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>econolodgeazletx, Webmaster at Motel 6 Azle, TX, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>It sucked big tome!!!!!!!!!  I travel a lot and never ever have I ever stayed in such a horrible place.  The very first thing that happened was they couldn't run my card because the manager was not there and he was the only person that could do that. I requested a downstairs room, due to the fact that my boyfriend is crippled and has to use a walker or cane to walk.  The room they gave us, room #105 the ceiling was majorly leaking in the bathroom, the floor, toilet and shower were covered in water.   When I went and told them that we needed another room they treated me like I was crazy.  They came and looked then they saw that I was not crazy.  That room appeared on my card as being $55.31 and it was a king sized bed.  Then they told me they had no more downstairs rooms.  I went and asked my crippled boyfriend who had just made a 5 hour drive to town if he thought he could make it up the stairs, he said yes but it would take him a while.  So we moved to room #210 which was a long walk from the stair case and it did take a while for him to make it.  This room had 2 beds which was okay.  When I finally got him and our luggage up to the
+room the t.v. only had one...It sucked big tome!!!!!!!!!  I travel a lot and never ever have I ever stayed in such a horrible place.  The very first thing that happened was they couldn't run my card because the manager was not there and he was the only person that could do that. I requested a downstairs room, due to the fact that my boyfriend is crippled and has to use a walker or cane to walk.  The room they gave us, room #105 the ceiling was majorly leaking in the bathroom, the floor, toilet and shower were covered in water.   When I went and told them that we needed another room they treated me like I was crazy.  They came and looked then they saw that I was not crazy.  That room appeared on my card as being $55.31 and it was a king sized bed.  Then they told me they had no more downstairs rooms.  I went and asked my crippled boyfriend who had just made a 5 hour drive to town if he thought he could make it up the stairs, he said yes but it would take him a while.  So we moved to room #210 which was a long walk from the stair case and it did take a while for him to make it.  This room had 2 beds which was okay.  When I finally got him and our luggage up to theroom the t.v. only had one channel.  They told me that the "manager" would be back soon and would take care of it.  When the "manager" got to the room it was a teenage boy.  He did fix the t.v.  Then about 30 to 45 minutes later I got a call that I could come down and pay for the room.  So I went and did that and guess what that room on the second floor with 2 beds costed $90.40.  I could have gone to a Best Western and paid that and would have had a lot better service, clean room, be treated with the up most respect, have a hot breakfast, talk with a native speaker of the English language and not like a pesky pain in the butt!!!!!  I am seriously considering disputing the charge on my card, at the very least I should get a refund of the difference between the cost of the rooms!!!!!!!  The only reason we didn't go to the Best Western is that my boyfriend was so beat up from the drive and all the walking and changing of the rooms he just wanted to rest.  If you can handle all of the problems go ahead but I will never spend another night there.  My personal opinion is that if you are going to work with the general public you should speak English that anyone can understand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r295418930-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>295418930</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Only place in Azle</t>
+  </si>
+  <si>
+    <t>Only one hotel in Azle .Bit pricy for a off brand hotel .Very noisy at night I guess they rent long term and there was a lot of coming and going at night. Little worn out for what looks like a fairly new hotel. Our bed mattress was very soft making hard to get a good nights rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>econolodgeazletx, Webmaster at Motel 6 Azle, TX, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Only one hotel in Azle .Bit pricy for a off brand hotel .Very noisy at night I guess they rent long term and there was a lot of coming and going at night. Little worn out for what looks like a fairly new hotel. Our bed mattress was very soft making hard to get a good nights rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r254104202-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>254104202</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>worst Hotel On The Planet.</t>
+  </si>
+  <si>
+    <t>Upon Arrival After A Long Trip With Family At Check In Time, Was  Greeted By A Barely English Speaking Woman That Said I Would Have To Wait Another 45 Minutes Since The Manager Was Out Picking Kids Up From School. After Speaking To The Lack Of Coustermer Service Manager, Went To Room And Was Not even Cleaned From The Prior Tennant. She Offered Me Another Room Upstairs After I Requested A Down Stairs Room For My Disabled Wife. I Refused So Had To Wait Another 30 Minutes For It To be cleaned. Later That Evening Asking For Extra Pillows And Coffee Seemed To Be A Chore She Did Not Want To Complete And Sent Her Son To Do It. Cable And Internet Went Out On Average Of  Every hour. And Was Just Fed Up. Will Make Sure I Tell Everyone That Travels To Never Come To ThIs Location. There Is More But Won't Nitpick. MoreShow less</t>
+  </si>
+  <si>
+    <t>econolodgeazletx, Webmaster at Motel 6 Azle, TX, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Upon Arrival After A Long Trip With Family At Check In Time, Was  Greeted By A Barely English Speaking Woman That Said I Would Have To Wait Another 45 Minutes Since The Manager Was Out Picking Kids Up From School. After Speaking To The Lack Of Coustermer Service Manager, Went To Room And Was Not even Cleaned From The Prior Tennant. She Offered Me Another Room Upstairs After I Requested A Down Stairs Room For My Disabled Wife. I Refused So Had To Wait Another 30 Minutes For It To be cleaned. Later That Evening Asking For Extra Pillows And Coffee Seemed To Be A Chore She Did Not Want To Complete And Sent Her Son To Do It. Cable And Internet Went Out On Average Of  Every hour. And Was Just Fed Up. Will Make Sure I Tell Everyone That Travels To Never Come To ThIs Location. There Is More But Won't Nitpick. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r184479776-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>184479776</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>Home of THE worst customer service.</t>
+  </si>
+  <si>
+    <t>I recently reserved a room at this "hotel" for one of my employees as, it is the ONLY hotel in Azle. After making the reservation online, I called the hotel to have them send a credit card authorization form so that I could pay for the hotel and leave my employee worry free during his business trip. The clerk didn't understand what I needed, so I asked if I could come in and pay for the room ahead of time instead - at which time she promptly hung up on me. As a consumer, this is terribly disturbing, so I then called Choice Customer Relations to try to resolve this matter. Customer Relations called the hotel while I was on hold, and they were also hung up on. How unprofessional! How does a place that doesn't even value making a reservation (their only source of revenue and basis for projecting cashflow and expenses) stay in business?? Don't promote this kind of behavior at all costs, consider the other reviews... I'm obviously not the only one who has a bad taste in their mouth after dealing with this hotel. I can only imagine that the stay experience will be one of the worst, if the reservation process tells any kind of story.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>econolodgeazletx, Webmaster at Motel 6 Azle, TX, responded to this reviewResponded July 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2014</t>
+  </si>
+  <si>
+    <t>I recently reserved a room at this "hotel" for one of my employees as, it is the ONLY hotel in Azle. After making the reservation online, I called the hotel to have them send a credit card authorization form so that I could pay for the hotel and leave my employee worry free during his business trip. The clerk didn't understand what I needed, so I asked if I could come in and pay for the room ahead of time instead - at which time she promptly hung up on me. As a consumer, this is terribly disturbing, so I then called Choice Customer Relations to try to resolve this matter. Customer Relations called the hotel while I was on hold, and they were also hung up on. How unprofessional! How does a place that doesn't even value making a reservation (their only source of revenue and basis for projecting cashflow and expenses) stay in business?? Don't promote this kind of behavior at all costs, consider the other reviews... I'm obviously not the only one who has a bad taste in their mouth after dealing with this hotel. I can only imagine that the stay experience will be one of the worst, if the reservation process tells any kind of story.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r176949893-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>176949893</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>OK-to-good, could use some competition</t>
+  </si>
+  <si>
+    <t>My experience was medium: nice enough clean ground-floor room w/fridge, no complaints about facilities.    Twice asked for directions &amp; was readily given Mapquest printouts.  Official pool hours should start earlier than 10AM as no rooms overlook the pool, but I slipped in quietly one early morning, much refreshed.   Glad I didn't see some of these rock-bottom reviews before staying here, I had no alternative &amp; was visiting folks in town.   I wished to sleep in &amp; was refused a slightly late checkout because "we get too full."   As the hotel overlooks a thriving business hub (CVS, Sonic, Walmart) one would think the area would support more than one hotel, as the room was clearly overpriced (probably worse on weekends.)   I'd heard the Econolodge was the only lodging option in town, so cruised around a bit before conceding it was true.    A little healthy competition would inevitably make the rates a little more reasonable.    Still, mine was far from the discouraging experience described by others.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My experience was medium: nice enough clean ground-floor room w/fridge, no complaints about facilities.    Twice asked for directions &amp; was readily given Mapquest printouts.  Official pool hours should start earlier than 10AM as no rooms overlook the pool, but I slipped in quietly one early morning, much refreshed.   Glad I didn't see some of these rock-bottom reviews before staying here, I had no alternative &amp; was visiting folks in town.   I wished to sleep in &amp; was refused a slightly late checkout because "we get too full."   As the hotel overlooks a thriving business hub (CVS, Sonic, Walmart) one would think the area would support more than one hotel, as the room was clearly overpriced (probably worse on weekends.)   I'd heard the Econolodge was the only lodging option in town, so cruised around a bit before conceding it was true.    A little healthy competition would inevitably make the rates a little more reasonable.    Still, mine was far from the discouraging experience described by others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r164933188-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>164933188</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Not that bad</t>
+  </si>
+  <si>
+    <t>I stayed here after a wedding and we just didn't want to drive back that night.  When I checked in around 10:30 it was indeed someone in pajama pants but it was a teenager.  She was polite and I reckon if I had to man a post where you might get 0-2 people coming to the window after 10 I would try to get some sleep as well.  The room was a little pricey (89) but if you're the only game in town I guess you get to set your price.  That said Azle isn't exactly the Port of Miami, they probably have to charge that just to keep this place afloat.  The room was what you would expect for an economy hotel.  From the other reviews I expected a roach-infested hobo shanty guarded by shrillbillies, but it was clean.  I think they must have redone or cleaned the place up a bit, the bathroom was almost spotless, a little dirt in the corners but otherwise clean with fresh towels rolled up and very good pressure in the shower.  The sink worked and the fridge was cold.  I didn't check the tv.  The A/C unit worked well and cooled down the room pretty fast.  The doors to the rooms are side by side, so as the drunk people in the next room knocked to get into their room or slammed their door I kept thinking someone was at my door....I stayed here after a wedding and we just didn't want to drive back that night.  When I checked in around 10:30 it was indeed someone in pajama pants but it was a teenager.  She was polite and I reckon if I had to man a post where you might get 0-2 people coming to the window after 10 I would try to get some sleep as well.  The room was a little pricey (89) but if you're the only game in town I guess you get to set your price.  That said Azle isn't exactly the Port of Miami, they probably have to charge that just to keep this place afloat.  The room was what you would expect for an economy hotel.  From the other reviews I expected a roach-infested hobo shanty guarded by shrillbillies, but it was clean.  I think they must have redone or cleaned the place up a bit, the bathroom was almost spotless, a little dirt in the corners but otherwise clean with fresh towels rolled up and very good pressure in the shower.  The sink worked and the fridge was cold.  I didn't check the tv.  The A/C unit worked well and cooled down the room pretty fast.  The doors to the rooms are side by side, so as the drunk people in the next room knocked to get into their room or slammed their door I kept thinking someone was at my door.  The beds were made up clean and the sheets appeared very clean.  They were a wee bit musty is all.  Owners might want to invest in some febreeze.  I called the desk once to ask something and the lady was polite.So overall not that bad, definitely not a nightmare experience for me, I got a good nights rest and a shower that's about all I cared about.  I've found myself in worse accommodations.  For the money you can get a nicer suite up in Lake Worth, but if you don't want to drive then this place is fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I stayed here after a wedding and we just didn't want to drive back that night.  When I checked in around 10:30 it was indeed someone in pajama pants but it was a teenager.  She was polite and I reckon if I had to man a post where you might get 0-2 people coming to the window after 10 I would try to get some sleep as well.  The room was a little pricey (89) but if you're the only game in town I guess you get to set your price.  That said Azle isn't exactly the Port of Miami, they probably have to charge that just to keep this place afloat.  The room was what you would expect for an economy hotel.  From the other reviews I expected a roach-infested hobo shanty guarded by shrillbillies, but it was clean.  I think they must have redone or cleaned the place up a bit, the bathroom was almost spotless, a little dirt in the corners but otherwise clean with fresh towels rolled up and very good pressure in the shower.  The sink worked and the fridge was cold.  I didn't check the tv.  The A/C unit worked well and cooled down the room pretty fast.  The doors to the rooms are side by side, so as the drunk people in the next room knocked to get into their room or slammed their door I kept thinking someone was at my door....I stayed here after a wedding and we just didn't want to drive back that night.  When I checked in around 10:30 it was indeed someone in pajama pants but it was a teenager.  She was polite and I reckon if I had to man a post where you might get 0-2 people coming to the window after 10 I would try to get some sleep as well.  The room was a little pricey (89) but if you're the only game in town I guess you get to set your price.  That said Azle isn't exactly the Port of Miami, they probably have to charge that just to keep this place afloat.  The room was what you would expect for an economy hotel.  From the other reviews I expected a roach-infested hobo shanty guarded by shrillbillies, but it was clean.  I think they must have redone or cleaned the place up a bit, the bathroom was almost spotless, a little dirt in the corners but otherwise clean with fresh towels rolled up and very good pressure in the shower.  The sink worked and the fridge was cold.  I didn't check the tv.  The A/C unit worked well and cooled down the room pretty fast.  The doors to the rooms are side by side, so as the drunk people in the next room knocked to get into their room or slammed their door I kept thinking someone was at my door.  The beds were made up clean and the sheets appeared very clean.  They were a wee bit musty is all.  Owners might want to invest in some febreeze.  I called the desk once to ask something and the lady was polite.So overall not that bad, definitely not a nightmare experience for me, I got a good nights rest and a shower that's about all I cared about.  I've found myself in worse accommodations.  For the money you can get a nicer suite up in Lake Worth, but if you don't want to drive then this place is fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r105207690-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>105207690</t>
+  </si>
+  <si>
+    <t>04/23/2011</t>
+  </si>
+  <si>
+    <t>Drive 10 min to Lake Worth. Do not stay here.</t>
+  </si>
+  <si>
+    <t>This motel is dirty. The manager well maybe she the manager is lazy. Doesn't care to do her job. The bed is sagging. The curtains are old and have holes. Stayed on night and left and went to lake worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel is dirty. The manager well maybe she the manager is lazy. Doesn't care to do her job. The bed is sagging. The curtains are old and have holes. Stayed on night and left and went to lake worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r78565591-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>78565591</t>
+  </si>
+  <si>
+    <t>09/06/2010</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>do not stay here...so bad I don't know what to say except if you stay here it is torture. This is the worst hotel I have ever stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>do not stay here...so bad I don't know what to say except if you stay here it is torture. This is the worst hotel I have ever stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r10002091-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>10002091</t>
+  </si>
+  <si>
+    <t>09/25/2007</t>
+  </si>
+  <si>
+    <t>Nightmare in Azel</t>
+  </si>
+  <si>
+    <t>I made a reservation on August 25, 2007 for a handicapped accessible room for September 13th thru the 16th 2007. I called the morning of the 13th to confirm the reservation. Before leaving for my flight to Dallas/Forth Worth. When arriving at the motel they gave us a regular room on the 2nd floor. My husband explained we had made a reservation for a handicapped room. I would have had no way to get to the 2nd floor as I am in a wheelchair and they did not have an elevator. They said they had a handicapped accessible room on the first floor, but it had boxes in it. Because of the late hour we took the room and decided we could deal with the boxes until the next day. The room not only had huge boxes in it, the toilet didn’t work and there was no running cold water. We called and told them about the toilet, they said they knew about it the day before, but could not get a plumber. My daughter called the front desk to tell them they needed to do something about the situation. She was told they didn’t care. So she said she was going to call their corporate office. After that a man came to fix the toilet. My youngest daughter asked if he could get the water working and give us his name and the name of the manager. He went...I made a reservation on August 25, 2007 for a handicapped accessible room for September 13th thru the 16th 2007. I called the morning of the 13th to confirm the reservation. Before leaving for my flight to Dallas/Forth Worth. When arriving at the motel they gave us a regular room on the 2nd floor. My husband explained we had made a reservation for a handicapped room. I would have had no way to get to the 2nd floor as I am in a wheelchair and they did not have an elevator. They said they had a handicapped accessible room on the first floor, but it had boxes in it. Because of the late hour we took the room and decided we could deal with the boxes until the next day. The room not only had huge boxes in it, the toilet didn’t work and there was no running cold water. We called and told them about the toilet, they said they knew about it the day before, but could not get a plumber. My daughter called the front desk to tell them they needed to do something about the situation. She was told they didn’t care. So she said she was going to call their corporate office. After that a man came to fix the toilet. My youngest daughter asked if he could get the water working and give us his name and the name of the manager. He went crazy and got right in her face, threatening her. At that time I told my 11 year old grandson to call the police. The officer who responded told us that the people we were dealing with were the owners. And that was the third time he had been called to that motel. Once for a blind woman, a mentally challenged woman and myself. We discussed whether my daughter was going to press charges. In telling him she lives in Hawaii, we decided it would be to big of a hassle for her to return to Texas to testify. The officer went to tell the owner what we had talked about. Then the owner told the officer to kick us out. There are no other motels in Azel. So we found a wonderful Holiday Inn Express in Lake Worth Texas. Left the Econo Lodge about 10:30 p. m..and left the nightmare of that place behind..UtahMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>I made a reservation on August 25, 2007 for a handicapped accessible room for September 13th thru the 16th 2007. I called the morning of the 13th to confirm the reservation. Before leaving for my flight to Dallas/Forth Worth. When arriving at the motel they gave us a regular room on the 2nd floor. My husband explained we had made a reservation for a handicapped room. I would have had no way to get to the 2nd floor as I am in a wheelchair and they did not have an elevator. They said they had a handicapped accessible room on the first floor, but it had boxes in it. Because of the late hour we took the room and decided we could deal with the boxes until the next day. The room not only had huge boxes in it, the toilet didn’t work and there was no running cold water. We called and told them about the toilet, they said they knew about it the day before, but could not get a plumber. My daughter called the front desk to tell them they needed to do something about the situation. She was told they didn’t care. So she said she was going to call their corporate office. After that a man came to fix the toilet. My youngest daughter asked if he could get the water working and give us his name and the name of the manager. He went...I made a reservation on August 25, 2007 for a handicapped accessible room for September 13th thru the 16th 2007. I called the morning of the 13th to confirm the reservation. Before leaving for my flight to Dallas/Forth Worth. When arriving at the motel they gave us a regular room on the 2nd floor. My husband explained we had made a reservation for a handicapped room. I would have had no way to get to the 2nd floor as I am in a wheelchair and they did not have an elevator. They said they had a handicapped accessible room on the first floor, but it had boxes in it. Because of the late hour we took the room and decided we could deal with the boxes until the next day. The room not only had huge boxes in it, the toilet didn’t work and there was no running cold water. We called and told them about the toilet, they said they knew about it the day before, but could not get a plumber. My daughter called the front desk to tell them they needed to do something about the situation. She was told they didn’t care. So she said she was going to call their corporate office. After that a man came to fix the toilet. My youngest daughter asked if he could get the water working and give us his name and the name of the manager. He went crazy and got right in her face, threatening her. At that time I told my 11 year old grandson to call the police. The officer who responded told us that the people we were dealing with were the owners. And that was the third time he had been called to that motel. Once for a blind woman, a mentally challenged woman and myself. We discussed whether my daughter was going to press charges. In telling him she lives in Hawaii, we decided it would be to big of a hassle for her to return to Texas to testify. The officer went to tell the owner what we had talked about. Then the owner told the officer to kick us out. There are no other motels in Azel. So we found a wonderful Holiday Inn Express in Lake Worth Texas. Left the Econo Lodge about 10:30 p. m..and left the nightmare of that place behind..UtahMore</t>
   </si>
 </sst>
 </file>
@@ -640,6 +867,615 @@
         <v>41</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_545.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_545.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>STR#</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Debbie w</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -185,6 +188,9 @@
 room the t.v. only had one...It sucked big tome!!!!!!!!!  I travel a lot and never ever have I ever stayed in such a horrible place.  The very first thing that happened was they couldn't run my card because the manager was not there and he was the only person that could do that. I requested a downstairs room, due to the fact that my boyfriend is crippled and has to use a walker or cane to walk.  The room they gave us, room #105 the ceiling was majorly leaking in the bathroom, the floor, toilet and shower were covered in water.   When I went and told them that we needed another room they treated me like I was crazy.  They came and looked then they saw that I was not crazy.  That room appeared on my card as being $55.31 and it was a king sized bed.  Then they told me they had no more downstairs rooms.  I went and asked my crippled boyfriend who had just made a 5 hour drive to town if he thought he could make it up the stairs, he said yes but it would take him a while.  So we moved to room #210 which was a long walk from the stair case and it did take a while for him to make it.  This room had 2 beds which was okay.  When I finally got him and our luggage up to theroom the t.v. only had one channel.  They told me that the "manager" would be back soon and would take care of it.  When the "manager" got to the room it was a teenage boy.  He did fix the t.v.  Then about 30 to 45 minutes later I got a call that I could come down and pay for the room.  So I went and did that and guess what that room on the second floor with 2 beds costed $90.40.  I could have gone to a Best Western and paid that and would have had a lot better service, clean room, be treated with the up most respect, have a hot breakfast, talk with a native speaker of the English language and not like a pesky pain in the butt!!!!!  I am seriously considering disputing the charge on my card, at the very least I should get a refund of the difference between the cost of the rooms!!!!!!!  The only reason we didn't go to the Best Western is that my boyfriend was so beat up from the drive and all the walking and changing of the rooms he just wanted to rest.  If you can handle all of the problems go ahead but I will never spend another night there.  My personal opinion is that if you are going to work with the general public you should speak English that anyone can understand.More</t>
   </si>
   <si>
+    <t>TexasTravelernow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r295418930-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -212,6 +218,9 @@
     <t>Only one hotel in Azle .Bit pricy for a off brand hotel .Very noisy at night I guess they rent long term and there was a lot of coming and going at night. Little worn out for what looks like a fairly new hotel. Our bed mattress was very soft making hard to get a good nights rest.More</t>
   </si>
   <si>
+    <t>2015traveler1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r254104202-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
     <t>Upon Arrival After A Long Trip With Family At Check In Time, Was  Greeted By A Barely English Speaking Woman That Said I Would Have To Wait Another 45 Minutes Since The Manager Was Out Picking Kids Up From School. After Speaking To The Lack Of Coustermer Service Manager, Went To Room And Was Not even Cleaned From The Prior Tennant. She Offered Me Another Room Upstairs After I Requested A Down Stairs Room For My Disabled Wife. I Refused So Had To Wait Another 30 Minutes For It To be cleaned. Later That Evening Asking For Extra Pillows And Coffee Seemed To Be A Chore She Did Not Want To Complete And Sent Her Son To Do It. Cable And Internet Went Out On Average Of  Every hour. And Was Just Fed Up. Will Make Sure I Tell Everyone That Travels To Never Come To ThIs Location. There Is More But Won't Nitpick. More</t>
   </si>
   <si>
+    <t>Tiffany B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r184479776-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -266,6 +278,9 @@
     <t>I recently reserved a room at this "hotel" for one of my employees as, it is the ONLY hotel in Azle. After making the reservation online, I called the hotel to have them send a credit card authorization form so that I could pay for the hotel and leave my employee worry free during his business trip. The clerk didn't understand what I needed, so I asked if I could come in and pay for the room ahead of time instead - at which time she promptly hung up on me. As a consumer, this is terribly disturbing, so I then called Choice Customer Relations to try to resolve this matter. Customer Relations called the hotel while I was on hold, and they were also hung up on. How unprofessional! How does a place that doesn't even value making a reservation (their only source of revenue and basis for projecting cashflow and expenses) stay in business?? Don't promote this kind of behavior at all costs, consider the other reviews... I'm obviously not the only one who has a bad taste in their mouth after dealing with this hotel. I can only imagine that the stay experience will be one of the worst, if the reservation process tells any kind of story.More</t>
   </si>
   <si>
+    <t>Mark R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r176949893-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -290,6 +305,9 @@
     <t>My experience was medium: nice enough clean ground-floor room w/fridge, no complaints about facilities.    Twice asked for directions &amp; was readily given Mapquest printouts.  Official pool hours should start earlier than 10AM as no rooms overlook the pool, but I slipped in quietly one early morning, much refreshed.   Glad I didn't see some of these rock-bottom reviews before staying here, I had no alternative &amp; was visiting folks in town.   I wished to sleep in &amp; was refused a slightly late checkout because "we get too full."   As the hotel overlooks a thriving business hub (CVS, Sonic, Walmart) one would think the area would support more than one hotel, as the room was clearly overpriced (probably worse on weekends.)   I'd heard the Econolodge was the only lodging option in town, so cruised around a bit before conceding it was true.    A little healthy competition would inevitably make the rates a little more reasonable.    Still, mine was far from the discouraging experience described by others.More</t>
   </si>
   <si>
+    <t>GoritoChorito</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r164933188-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -311,6 +329,9 @@
     <t>I stayed here after a wedding and we just didn't want to drive back that night.  When I checked in around 10:30 it was indeed someone in pajama pants but it was a teenager.  She was polite and I reckon if I had to man a post where you might get 0-2 people coming to the window after 10 I would try to get some sleep as well.  The room was a little pricey (89) but if you're the only game in town I guess you get to set your price.  That said Azle isn't exactly the Port of Miami, they probably have to charge that just to keep this place afloat.  The room was what you would expect for an economy hotel.  From the other reviews I expected a roach-infested hobo shanty guarded by shrillbillies, but it was clean.  I think they must have redone or cleaned the place up a bit, the bathroom was almost spotless, a little dirt in the corners but otherwise clean with fresh towels rolled up and very good pressure in the shower.  The sink worked and the fridge was cold.  I didn't check the tv.  The A/C unit worked well and cooled down the room pretty fast.  The doors to the rooms are side by side, so as the drunk people in the next room knocked to get into their room or slammed their door I kept thinking someone was at my door....I stayed here after a wedding and we just didn't want to drive back that night.  When I checked in around 10:30 it was indeed someone in pajama pants but it was a teenager.  She was polite and I reckon if I had to man a post where you might get 0-2 people coming to the window after 10 I would try to get some sleep as well.  The room was a little pricey (89) but if you're the only game in town I guess you get to set your price.  That said Azle isn't exactly the Port of Miami, they probably have to charge that just to keep this place afloat.  The room was what you would expect for an economy hotel.  From the other reviews I expected a roach-infested hobo shanty guarded by shrillbillies, but it was clean.  I think they must have redone or cleaned the place up a bit, the bathroom was almost spotless, a little dirt in the corners but otherwise clean with fresh towels rolled up and very good pressure in the shower.  The sink worked and the fridge was cold.  I didn't check the tv.  The A/C unit worked well and cooled down the room pretty fast.  The doors to the rooms are side by side, so as the drunk people in the next room knocked to get into their room or slammed their door I kept thinking someone was at my door.  The beds were made up clean and the sheets appeared very clean.  They were a wee bit musty is all.  Owners might want to invest in some febreeze.  I called the desk once to ask something and the lady was polite.So overall not that bad, definitely not a nightmare experience for me, I got a good nights rest and a shower that's about all I cared about.  I've found myself in worse accommodations.  For the money you can get a nicer suite up in Lake Worth, but if you don't want to drive then this place is fine.More</t>
   </si>
   <si>
+    <t>Tswizzlelat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r105207690-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -329,6 +350,9 @@
     <t>This motel is dirty. The manager well maybe she the manager is lazy. Doesn't care to do her job. The bed is sagging. The curtains are old and have holes. Stayed on night and left and went to lake worth.More</t>
   </si>
   <si>
+    <t>adjusterTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r78565591-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
   </si>
   <si>
     <t>do not stay here...so bad I don't know what to say except if you stay here it is torture. This is the worst hotel I have ever stayed in.More</t>
+  </si>
+  <si>
+    <t>Georgia1P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r10002091-Motel_6_Azle_TX-Azle_Texas.html</t>
@@ -871,43 +898,47 @@
       <c r="A2" t="n">
         <v>54999</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -923,56 +954,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54999</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -988,47 +1023,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54999</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -1055,56 +1094,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54999</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>6994</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1126,56 +1169,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54999</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>12306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1197,56 +1244,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54999</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1268,47 +1319,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54999</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
@@ -1335,56 +1390,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54999</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1396,56 +1455,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54999</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169197</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1467,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_545.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_545.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>STR#</t>
   </si>
@@ -144,19 +144,61 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Debbie w</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r475118098-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>30203</t>
+  </si>
+  <si>
+    <t>620355</t>
+  </si>
+  <si>
+    <t>475118098</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>april 3rd  2017</t>
+  </si>
+  <si>
+    <t>worst place ever when i got there had to wait 45 minutes for someone to show up they left  n didnt leave any sign r anything when they be back fridge didnt work beds  r the worst ever u can feel every spring in the bed  turn on bathroom light n roaches ran everywhere they have very dirty sheets with holes in them they dont even have fitted sheets floor was sticky i had on new socks  after i walk a few times n the floor look like i walk in mud my socks was very dirty i just threw them away at 330 in the afternoon there was dirty laundry all over the sidewalks i will never stay at thatb  motel again worst place i ever stay atMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>worst place ever when i got there had to wait 45 minutes for someone to show up they left  n didnt leave any sign r anything when they be back fridge didnt work beds  r the worst ever u can feel every spring in the bed  turn on bathroom light n roaches ran everywhere they have very dirty sheets with holes in them they dont even have fitted sheets floor was sticky i had on new socks  after i walk a few times n the floor look like i walk in mud my socks was very dirty i just threw them away at 330 in the afternoon there was dirty laundry all over the sidewalks i will never stay at thatb  motel again worst place i ever stay atMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r446909951-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>446909951</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Now a motel 6</t>
+  </si>
+  <si>
+    <t>Motel looks like they have recently done some renovations (based on the construction debree left behind) for $70 a night I would hope for a blanket that didn't have a bunch of rips and cigarette burns in it and a bathroom door that shut, but we didn't get that. It was a decent room though, clean and as always no pet fee!!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r330405359-Motel_6_Azle_TX-Azle_Texas.html</t>
-  </si>
-  <si>
-    <t>30203</t>
-  </si>
-  <si>
-    <t>620355</t>
   </si>
   <si>
     <t>330405359</t>
@@ -175,9 +217,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>econolodgeazletx, Webmaster at Motel 6 Azle, TX, responded to this reviewResponded December 9, 2015</t>
   </si>
   <si>
@@ -188,9 +227,6 @@
 room the t.v. only had one...It sucked big tome!!!!!!!!!  I travel a lot and never ever have I ever stayed in such a horrible place.  The very first thing that happened was they couldn't run my card because the manager was not there and he was the only person that could do that. I requested a downstairs room, due to the fact that my boyfriend is crippled and has to use a walker or cane to walk.  The room they gave us, room #105 the ceiling was majorly leaking in the bathroom, the floor, toilet and shower were covered in water.   When I went and told them that we needed another room they treated me like I was crazy.  They came and looked then they saw that I was not crazy.  That room appeared on my card as being $55.31 and it was a king sized bed.  Then they told me they had no more downstairs rooms.  I went and asked my crippled boyfriend who had just made a 5 hour drive to town if he thought he could make it up the stairs, he said yes but it would take him a while.  So we moved to room #210 which was a long walk from the stair case and it did take a while for him to make it.  This room had 2 beds which was okay.  When I finally got him and our luggage up to theroom the t.v. only had one channel.  They told me that the "manager" would be back soon and would take care of it.  When the "manager" got to the room it was a teenage boy.  He did fix the t.v.  Then about 30 to 45 minutes later I got a call that I could come down and pay for the room.  So I went and did that and guess what that room on the second floor with 2 beds costed $90.40.  I could have gone to a Best Western and paid that and would have had a lot better service, clean room, be treated with the up most respect, have a hot breakfast, talk with a native speaker of the English language and not like a pesky pain in the butt!!!!!  I am seriously considering disputing the charge on my card, at the very least I should get a refund of the difference between the cost of the rooms!!!!!!!  The only reason we didn't go to the Best Western is that my boyfriend was so beat up from the drive and all the walking and changing of the rooms he just wanted to rest.  If you can handle all of the problems go ahead but I will never spend another night there.  My personal opinion is that if you are going to work with the general public you should speak English that anyone can understand.More</t>
   </si>
   <si>
-    <t>TexasTravelernow</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r295418930-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -218,9 +254,6 @@
     <t>Only one hotel in Azle .Bit pricy for a off brand hotel .Very noisy at night I guess they rent long term and there was a lot of coming and going at night. Little worn out for what looks like a fairly new hotel. Our bed mattress was very soft making hard to get a good nights rest.More</t>
   </si>
   <si>
-    <t>2015traveler1969</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r254104202-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -245,7 +278,58 @@
     <t>Upon Arrival After A Long Trip With Family At Check In Time, Was  Greeted By A Barely English Speaking Woman That Said I Would Have To Wait Another 45 Minutes Since The Manager Was Out Picking Kids Up From School. After Speaking To The Lack Of Coustermer Service Manager, Went To Room And Was Not even Cleaned From The Prior Tennant. She Offered Me Another Room Upstairs After I Requested A Down Stairs Room For My Disabled Wife. I Refused So Had To Wait Another 30 Minutes For It To be cleaned. Later That Evening Asking For Extra Pillows And Coffee Seemed To Be A Chore She Did Not Want To Complete And Sent Her Son To Do It. Cable And Internet Went Out On Average Of  Every hour. And Was Just Fed Up. Will Make Sure I Tell Everyone That Travels To Never Come To ThIs Location. There Is More But Won't Nitpick. More</t>
   </si>
   <si>
-    <t>Tiffany B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r251550511-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>251550511</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a room and not much more </t>
+  </si>
+  <si>
+    <t>Room was clean enough. Not super nice but not amazing. Breakfast is lacking, but you get what you pay for. No competition in town. Next town over, Lake Worth, has some more hotels but I have found them to be a little higher priced and 15 minutes away. Staff here was nice enough to me. If I need to stay in town again I would choose this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>econolodgeazletx, Webmaster at Motel 6 Azle, TX, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean enough. Not super nice but not amazing. Breakfast is lacking, but you get what you pay for. No competition in town. Next town over, Lake Worth, has some more hotels but I have found them to be a little higher priced and 15 minutes away. Staff here was nice enough to me. If I need to stay in town again I would choose this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r215765919-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>215765919</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Room was clean and well equiped.</t>
+  </si>
+  <si>
+    <t>We are old folks.  We get up around 5:30 am.  Breakfast room still not open at 7:30 am so we went out for breakfast.Manager could have mentioned not to put the key in my shirt pocket with Telephone.  It didn't work the lock.  After she opened the door after re-doing the card, she still didn't mention it.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>econolodgeazletx, Webmaster at Motel 6 Azle, TX, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>We are old folks.  We get up around 5:30 am.  Breakfast room still not open at 7:30 am so we went out for breakfast.Manager could have mentioned not to put the key in my shirt pocket with Telephone.  It didn't work the lock.  After she opened the door after re-doing the card, she still didn't mention it.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r184479776-Motel_6_Azle_TX-Azle_Texas.html</t>
@@ -278,9 +362,6 @@
     <t>I recently reserved a room at this "hotel" for one of my employees as, it is the ONLY hotel in Azle. After making the reservation online, I called the hotel to have them send a credit card authorization form so that I could pay for the hotel and leave my employee worry free during his business trip. The clerk didn't understand what I needed, so I asked if I could come in and pay for the room ahead of time instead - at which time she promptly hung up on me. As a consumer, this is terribly disturbing, so I then called Choice Customer Relations to try to resolve this matter. Customer Relations called the hotel while I was on hold, and they were also hung up on. How unprofessional! How does a place that doesn't even value making a reservation (their only source of revenue and basis for projecting cashflow and expenses) stay in business?? Don't promote this kind of behavior at all costs, consider the other reviews... I'm obviously not the only one who has a bad taste in their mouth after dealing with this hotel. I can only imagine that the stay experience will be one of the worst, if the reservation process tells any kind of story.More</t>
   </si>
   <si>
-    <t>Mark R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r176949893-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -305,9 +386,6 @@
     <t>My experience was medium: nice enough clean ground-floor room w/fridge, no complaints about facilities.    Twice asked for directions &amp; was readily given Mapquest printouts.  Official pool hours should start earlier than 10AM as no rooms overlook the pool, but I slipped in quietly one early morning, much refreshed.   Glad I didn't see some of these rock-bottom reviews before staying here, I had no alternative &amp; was visiting folks in town.   I wished to sleep in &amp; was refused a slightly late checkout because "we get too full."   As the hotel overlooks a thriving business hub (CVS, Sonic, Walmart) one would think the area would support more than one hotel, as the room was clearly overpriced (probably worse on weekends.)   I'd heard the Econolodge was the only lodging option in town, so cruised around a bit before conceding it was true.    A little healthy competition would inevitably make the rates a little more reasonable.    Still, mine was far from the discouraging experience described by others.More</t>
   </si>
   <si>
-    <t>GoritoChorito</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r164933188-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -329,7 +407,46 @@
     <t>I stayed here after a wedding and we just didn't want to drive back that night.  When I checked in around 10:30 it was indeed someone in pajama pants but it was a teenager.  She was polite and I reckon if I had to man a post where you might get 0-2 people coming to the window after 10 I would try to get some sleep as well.  The room was a little pricey (89) but if you're the only game in town I guess you get to set your price.  That said Azle isn't exactly the Port of Miami, they probably have to charge that just to keep this place afloat.  The room was what you would expect for an economy hotel.  From the other reviews I expected a roach-infested hobo shanty guarded by shrillbillies, but it was clean.  I think they must have redone or cleaned the place up a bit, the bathroom was almost spotless, a little dirt in the corners but otherwise clean with fresh towels rolled up and very good pressure in the shower.  The sink worked and the fridge was cold.  I didn't check the tv.  The A/C unit worked well and cooled down the room pretty fast.  The doors to the rooms are side by side, so as the drunk people in the next room knocked to get into their room or slammed their door I kept thinking someone was at my door....I stayed here after a wedding and we just didn't want to drive back that night.  When I checked in around 10:30 it was indeed someone in pajama pants but it was a teenager.  She was polite and I reckon if I had to man a post where you might get 0-2 people coming to the window after 10 I would try to get some sleep as well.  The room was a little pricey (89) but if you're the only game in town I guess you get to set your price.  That said Azle isn't exactly the Port of Miami, they probably have to charge that just to keep this place afloat.  The room was what you would expect for an economy hotel.  From the other reviews I expected a roach-infested hobo shanty guarded by shrillbillies, but it was clean.  I think they must have redone or cleaned the place up a bit, the bathroom was almost spotless, a little dirt in the corners but otherwise clean with fresh towels rolled up and very good pressure in the shower.  The sink worked and the fridge was cold.  I didn't check the tv.  The A/C unit worked well and cooled down the room pretty fast.  The doors to the rooms are side by side, so as the drunk people in the next room knocked to get into their room or slammed their door I kept thinking someone was at my door.  The beds were made up clean and the sheets appeared very clean.  They were a wee bit musty is all.  Owners might want to invest in some febreeze.  I called the desk once to ask something and the lady was polite.So overall not that bad, definitely not a nightmare experience for me, I got a good nights rest and a shower that's about all I cared about.  I've found myself in worse accommodations.  For the money you can get a nicer suite up in Lake Worth, but if you don't want to drive then this place is fine.More</t>
   </si>
   <si>
-    <t>Tswizzlelat</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r128360931-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>128360931</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>If there was any other place to stay in Azle, this place would be out of business!</t>
+  </si>
+  <si>
+    <t>I have regretfully stayed at this motel multiple times over a six month period, strictly because it is the only hotel in Azle, and have not had one single good experience. It is filthy, filthy...makes you want to bring your own sheets and lysol the whole place before even entering. I have only had one working refrigerator out of the 6 rooms I have stayed in. Plus the staff is more than just rude, they don't seem to care about their jobs even a little. I had the manager come out in her pajamas, taking a personal call (which meant she ignored me and got annoyed when I tried to speak to her) at 10:30a.m. on a weekend when I went to check out. To top it all off it took way to many phone calls and 4 weeks for me to recieve a refund when I had to leave a day early due to a family emergency and no one that worked there knew how to return the money to my card. I sadly have nothing at all good to say about this place and would never recommend this motel to anyone!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I have regretfully stayed at this motel multiple times over a six month period, strictly because it is the only hotel in Azle, and have not had one single good experience. It is filthy, filthy...makes you want to bring your own sheets and lysol the whole place before even entering. I have only had one working refrigerator out of the 6 rooms I have stayed in. Plus the staff is more than just rude, they don't seem to care about their jobs even a little. I had the manager come out in her pajamas, taking a personal call (which meant she ignored me and got annoyed when I tried to speak to her) at 10:30a.m. on a weekend when I went to check out. To top it all off it took way to many phone calls and 4 weeks for me to recieve a refund when I had to leave a day early due to a family emergency and no one that worked there knew how to return the money to my card. I sadly have nothing at all good to say about this place and would never recommend this motel to anyone!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r114440430-Motel_6_Azle_TX-Azle_Texas.html</t>
+  </si>
+  <si>
+    <t>114440430</t>
+  </si>
+  <si>
+    <t>06/19/2011</t>
+  </si>
+  <si>
+    <t>Only Hotel in Azle, Expensive, Worth Driving Somewhere Else</t>
+  </si>
+  <si>
+    <t>We arrived late (9:30 pm), having held our room with a credit card. No other hotel options in Azle, TX. We were a bit worried to walk around the room barefoot. Toilet did not flush consistently (sometimes fine) - believe me, you WANT the toilet to flush each time. Yes, they had "Continental Breakfast". I guess I have become a bit spoiled by other hotels who offer yogurt, boiled eggs, donuts and real waffles (not freezer waffles). Not planning to stay here again. Best part of the experience was that Domino's Pizza was right next door with Walmart just across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We arrived late (9:30 pm), having held our room with a credit card. No other hotel options in Azle, TX. We were a bit worried to walk around the room barefoot. Toilet did not flush consistently (sometimes fine) - believe me, you WANT the toilet to flush each time. Yes, they had "Continental Breakfast". I guess I have become a bit spoiled by other hotels who offer yogurt, boiled eggs, donuts and real waffles (not freezer waffles). Not planning to stay here again. Best part of the experience was that Domino's Pizza was right next door with Walmart just across the street.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r105207690-Motel_6_Azle_TX-Azle_Texas.html</t>
@@ -350,9 +467,6 @@
     <t>This motel is dirty. The manager well maybe she the manager is lazy. Doesn't care to do her job. The bed is sagging. The curtains are old and have holes. Stayed on night and left and went to lake worth.More</t>
   </si>
   <si>
-    <t>adjusterTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r78565591-Motel_6_Azle_TX-Azle_Texas.html</t>
   </si>
   <si>
@@ -372,9 +486,6 @@
   </si>
   <si>
     <t>do not stay here...so bad I don't know what to say except if you stay here it is torture. This is the worst hotel I have ever stayed in.More</t>
-  </si>
-  <si>
-    <t>Georgia1P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30203-d620355-r10002091-Motel_6_Azle_TX-Azle_Texas.html</t>
@@ -898,54 +1009,52 @@
       <c r="A2" t="n">
         <v>54999</v>
       </c>
-      <c r="B2" t="n">
-        <v>169191</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>1</v>
@@ -953,139 +1062,117 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54999</v>
       </c>
-      <c r="B3" t="n">
-        <v>169192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54999</v>
       </c>
-      <c r="B4" t="n">
-        <v>169193</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
       <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>1</v>
@@ -1094,151 +1181,133 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54999</v>
       </c>
-      <c r="B5" t="n">
-        <v>6994</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54999</v>
       </c>
-      <c r="B6" t="n">
-        <v>12306</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" t="s">
-        <v>93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="n">
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1250,293 +1319,689 @@
         <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54999</v>
       </c>
-      <c r="B7" t="n">
-        <v>169194</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54999</v>
       </c>
-      <c r="B8" t="n">
-        <v>169195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
         <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54999</v>
       </c>
-      <c r="B9" t="n">
-        <v>169196</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54999</v>
       </c>
-      <c r="B10" t="n">
-        <v>169197</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="O10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" t="s">
-        <v>93</v>
-      </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
         <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>111</v>
+      </c>
+      <c r="X13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>111</v>
+      </c>
+      <c r="X15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54999</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>111</v>
+      </c>
+      <c r="X16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
